--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>runname</t>
   </si>
@@ -147,9 +147,6 @@
     <t>sumTiers</t>
   </si>
   <si>
-    <t>t5</t>
-  </si>
-  <si>
     <t>RS1.t5</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>AL_pct</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
 </sst>
 </file>
@@ -325,49 +328,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>150976</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26803350" y="800100"/>
-          <a:ext cx="11390476" cy="1238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,13 +663,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -739,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>28</v>
@@ -760,16 +720,16 @@
         <v>11</v>
       </c>
       <c r="X4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -780,7 +740,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -816,13 +776,13 @@
         <v>0.04</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>
@@ -840,10 +800,10 @@
         <v>0.16</v>
       </c>
       <c r="X5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z5">
         <v>0.94599999999999995</v>
@@ -896,13 +856,13 @@
         <v>0.04</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
         <v>31</v>
@@ -920,10 +880,10 @@
         <v>0.1</v>
       </c>
       <c r="X6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z6">
         <v>0.94599999999999995</v>
@@ -976,13 +936,13 @@
         <v>0.04</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
         <v>31</v>
@@ -1000,10 +960,10 @@
         <v>0.16</v>
       </c>
       <c r="X7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z7">
         <v>0.94599999999999995</v>
@@ -1056,13 +1016,13 @@
         <v>0.04</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s">
         <v>31</v>
@@ -1080,10 +1040,10 @@
         <v>0.1</v>
       </c>
       <c r="X8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z8">
         <v>0.94599999999999995</v>
@@ -1136,13 +1096,13 @@
         <v>0.04</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" t="s">
         <v>31</v>
@@ -1160,10 +1120,10 @@
         <v>0.1</v>
       </c>
       <c r="X9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z9">
         <v>0.94599999999999995</v>
@@ -1174,13 +1134,13 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1201,7 +1161,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1216,22 +1176,22 @@
         <v>0.04</v>
       </c>
       <c r="P11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
         <v>23</v>
       </c>
       <c r="U11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V11">
         <v>8.5300000000000001E-2</v>
@@ -1240,10 +1200,10 @@
         <v>0.16</v>
       </c>
       <c r="X11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z11">
         <v>0.94599999999999995</v>
@@ -1254,7 +1214,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1296,13 +1256,13 @@
         <v>0.04</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
         <v>31</v>
@@ -1320,10 +1280,10 @@
         <v>0.12</v>
       </c>
       <c r="X12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z12">
         <v>0.94599999999999995</v>
@@ -1343,7 +1303,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1653,7 +1612,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="9">
         <v>4.0399999999999998E-2</v>
@@ -1675,7 +1634,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="9">
         <v>8.2199999999999995E-2</v>
@@ -1719,7 +1678,7 @@
         <v>567435408</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1728,7 +1687,7 @@
         <v>112793616</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1737,7 +1696,7 @@
         <v>121980480</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1311,7 +1311,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -1311,7 +1311,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1311,7 +1311,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>runname</t>
   </si>
@@ -120,9 +121,6 @@
     <t>internal</t>
   </si>
   <si>
-    <t>cp</t>
-  </si>
-  <si>
     <t>r.geoMean</t>
   </si>
   <si>
@@ -144,24 +142,12 @@
     <t>tier</t>
   </si>
   <si>
-    <t>sumTiers</t>
-  </si>
-  <si>
-    <t>RS1.t5</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>wf_growth</t>
   </si>
   <si>
     <t>no_entrance</t>
   </si>
   <si>
-    <t>RS1.closed</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -205,6 +191,60 @@
   </si>
   <si>
     <t>simple</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>amort_type</t>
+  </si>
+  <si>
+    <t>pseudoClosed</t>
+  </si>
+  <si>
+    <t>m.reset</t>
+  </si>
+  <si>
+    <t>m.start</t>
+  </si>
+  <si>
+    <t>m.year1</t>
+  </si>
+  <si>
+    <t>useExtFund</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Callan assumption</t>
+  </si>
+  <si>
+    <t>MISERS assumption met</t>
+  </si>
+  <si>
+    <t>RVK2012 Conservative portfolio</t>
+  </si>
+  <si>
+    <t>Low return for 15 years</t>
+  </si>
+  <si>
+    <t>Low return ramping up to MISERS assmption in 5 years</t>
+  </si>
+  <si>
+    <t>Low return ramping up to MISERS assumption in 5 years</t>
+  </si>
+  <si>
+    <t>RVK2012 conservative portfolio</t>
+  </si>
+  <si>
+    <t>Callan portfolio</t>
+  </si>
+  <si>
+    <t>For development</t>
+  </si>
+  <si>
+    <t>RS.test</t>
   </si>
 </sst>
 </file>
@@ -297,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -312,6 +352,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,6 +371,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456290</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="3524250"/>
+          <a:ext cx="7276190" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198982</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="3981450"/>
+          <a:ext cx="8342857" cy="5047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,29 +751,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AA12"/>
+  <dimension ref="A4:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="14" max="15" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="24" max="24" width="12.625" customWidth="1"/>
+    <col min="25" max="25" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,647 +781,694 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="V4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
-      </c>
-      <c r="I5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>0.04</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V5">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA5">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0.14000000000000001</v>
       </c>
       <c r="J6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
+      <c r="K6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6">
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
+        <v>22</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
         <v>0.04</v>
       </c>
-      <c r="P6">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="V6">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="Z6">
-        <v>0.94599999999999995</v>
+        <v>0.08</v>
       </c>
       <c r="AA6">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0.64850319999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>4</v>
-      </c>
-      <c r="I7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
-      <c r="O7">
-        <v>0.04</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V7">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA7">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>0.14000000000000001</v>
       </c>
       <c r="J8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
+      <c r="K8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8">
         <v>20</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
+        <v>22</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
         <v>0.04</v>
       </c>
-      <c r="P8">
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" t="s">
         <v>31</v>
       </c>
-      <c r="T8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V8">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
       <c r="Y8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="Z8">
-        <v>0.94599999999999995</v>
+        <v>0.08</v>
       </c>
       <c r="AA8">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>0.64850319999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0.14000000000000001</v>
       </c>
       <c r="J9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="K9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
+        <v>22</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9">
         <v>0.04</v>
       </c>
-      <c r="P9">
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" t="s">
         <v>31</v>
       </c>
-      <c r="T9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V9">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>0.08</v>
+      </c>
+      <c r="AA9">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>0.64850319999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z9">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA9">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>20</v>
+      </c>
+      <c r="T10">
+        <v>0.04</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>0.08</v>
+      </c>
+      <c r="AA10">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0.64850319999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>4</v>
-      </c>
-      <c r="I11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="J11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
+        <v>22</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <v>20</v>
+      </c>
+      <c r="T11">
         <v>0.04</v>
       </c>
-      <c r="P11">
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11">
         <v>0.08</v>
       </c>
-      <c r="V11">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="X11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11">
-        <v>0.94599999999999995</v>
-      </c>
       <c r="AA11">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0.64850319999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0.14000000000000001</v>
       </c>
       <c r="J12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12">
+        <v>0.14000000000000001</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12">
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
+        <v>22</v>
+      </c>
+      <c r="R12">
+        <v>30</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="T12">
         <v>0.04</v>
       </c>
-      <c r="P12">
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" t="s">
         <v>31</v>
       </c>
-      <c r="T12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12">
+        <v>0.08</v>
+      </c>
+      <c r="AA12">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AB12" s="7">
         <v>0.12</v>
       </c>
-      <c r="X12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA12">
-        <v>0.91500000000000004</v>
+      <c r="AC12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0.71113269999999995</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0.64850319999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12 D5:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D8:G12">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S9 S11:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6 X8:X12">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1310,18 +1481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1333,27 +1504,27 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1378,21 +1549,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1409,253 +1581,413 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <f>F3+C3^2/2</f>
+        <v>8.72E-2</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.12</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8">
-        <f>B2-C2^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F2" s="10">
-        <f>B2 - C2^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E12" si="0">B3-C3^2/2</f>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F11" si="1">B3 - C3^2/2</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="9">
-        <v>8.2199999999999995E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.12</v>
       </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
+        <f>B4+0.0772/5</f>
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ref="B7:B10" si="0">B6+0.0772/5</f>
+        <v>4.088E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F4" s="10">
+        <v>5.6320000000000002E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>7.1760000000000004E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>8.72E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8.72E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F19" si="1">B10 - C10^2/2</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ref="E11:E19" si="2">B11-C11^2/2</f>
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B12" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>6.0822000000000001E-2</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="B13" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>6.0822000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9">
+        <v>8.72E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="B16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>3.32E-2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="B17" s="9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0184154999999999E-2</v>
+      </c>
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>3.32E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>4.0184154999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="B18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B19" s="9">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C19" s="7">
         <v>0.184</v>
       </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
         <v>6.4072000000000004E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F19" s="10">
         <f t="shared" si="1"/>
         <v>6.4072000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>4.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D12">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12" si="2">B12 - C12^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1664,12 +1996,12 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1678,7 +2010,7 @@
         <v>567435408</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1687,7 +2019,7 @@
         <v>112793616</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1696,7 +2028,7 @@
         <v>121980480</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1708,4 +2040,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.13</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.18</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -753,24 +753,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="7" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
-    <col min="14" max="15" width="14.25" customWidth="1"/>
-    <col min="20" max="20" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.375" customWidth="1"/>
-    <col min="24" max="24" width="12.625" customWidth="1"/>
-    <col min="25" max="25" width="14.875" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,17 +1551,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>runname</t>
   </si>
@@ -245,6 +245,27 @@
   </si>
   <si>
     <t>RS.test</t>
+  </si>
+  <si>
+    <t>NC.DC0</t>
+  </si>
+  <si>
+    <t>NC_AL</t>
+  </si>
+  <si>
+    <t>NC_B</t>
+  </si>
+  <si>
+    <t>NC.growth</t>
+  </si>
+  <si>
+    <t>B.growth</t>
+  </si>
+  <si>
+    <t>DC_include</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -256,7 +277,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +296,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -337,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -355,6 +384,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -428,7 +464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -751,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AF12"/>
+  <dimension ref="A4:AL12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,9 +813,11 @@
     <col min="23" max="23" width="13.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" customWidth="1"/>
+    <col min="37" max="37" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,12 +914,31 @@
       <c r="AF4" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="12"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -925,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6">
         <v>30</v>
@@ -966,14 +1029,32 @@
       <c r="AD6" t="s">
         <v>53</v>
       </c>
-      <c r="AE6" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0.64850319999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE6" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6">
+        <v>6896913</v>
+      </c>
+      <c r="AI6">
+        <v>0.02</v>
+      </c>
+      <c r="AJ6">
+        <v>0.3</v>
+      </c>
+      <c r="AK6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1104,7 @@
         <v>20</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8">
         <v>30</v>
@@ -1064,14 +1145,32 @@
       <c r="AD8" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF8" s="12">
-        <v>0.64850319999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE8" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>6896913</v>
+      </c>
+      <c r="AI8">
+        <v>0.02</v>
+      </c>
+      <c r="AJ8">
+        <v>0.3</v>
+      </c>
+      <c r="AK8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1181,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1121,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9">
         <v>30</v>
@@ -1162,14 +1261,32 @@
       <c r="AD9" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>0.64850319999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE9" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>6896913</v>
+      </c>
+      <c r="AI9">
+        <v>0.02</v>
+      </c>
+      <c r="AJ9">
+        <v>0.3</v>
+      </c>
+      <c r="AK9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1297,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1219,7 +1336,7 @@
         <v>20</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10">
         <v>30</v>
@@ -1260,14 +1377,32 @@
       <c r="AD10" t="s">
         <v>53</v>
       </c>
-      <c r="AE10" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>0.64850319999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE10" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>6896913</v>
+      </c>
+      <c r="AI10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ10">
+        <v>0.3</v>
+      </c>
+      <c r="AK10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1413,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1317,7 +1452,7 @@
         <v>20</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11">
         <v>30</v>
@@ -1358,14 +1493,32 @@
       <c r="AD11" t="s">
         <v>53</v>
       </c>
-      <c r="AE11" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>0.64850319999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE11" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>6896913</v>
+      </c>
+      <c r="AI11">
+        <v>0.02</v>
+      </c>
+      <c r="AJ11">
+        <v>0.3</v>
+      </c>
+      <c r="AK11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1376,7 +1529,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1415,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12">
         <v>30</v>
@@ -1456,11 +1609,29 @@
       <c r="AD12" t="s">
         <v>53</v>
       </c>
-      <c r="AE12" s="12">
-        <v>0.71113269999999995</v>
-      </c>
-      <c r="AF12" s="12">
-        <v>0.64850319999999995</v>
+      <c r="AE12" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AG12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>6896913</v>
+      </c>
+      <c r="AI12">
+        <v>0.02</v>
+      </c>
+      <c r="AJ12">
+        <v>0.3</v>
+      </c>
+      <c r="AK12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AL12">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1653,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1689,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -1551,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A4:AL12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>runname</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>if.reset</t>
+  </si>
+  <si>
+    <t>RS1.s1</t>
+  </si>
+  <si>
+    <t>sensitivity test 1</t>
   </si>
 </sst>
 </file>
@@ -793,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AL12"/>
+  <dimension ref="A4:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,16 +817,16 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" customWidth="1"/>
+    <col min="38" max="38" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,69 +885,72 @@
         <v>59</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AE5" s="12"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -996,65 +1008,68 @@
       <c r="S6">
         <v>20</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0.04</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>41</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>55</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>23</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.08</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>8.72E-2</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AC6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>53</v>
       </c>
       <c r="AD6" t="s">
         <v>53</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AG6" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AH6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>6896913</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.02</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.3</v>
-      </c>
-      <c r="AK6">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL6">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1112,65 +1127,68 @@
       <c r="S8">
         <v>20</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>0.04</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>5</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>41</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>23</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.08</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>8.72E-2</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>53</v>
       </c>
       <c r="AD8" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AG8" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8">
+      <c r="AH8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8">
         <v>6896913</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>0.02</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>0.3</v>
-      </c>
-      <c r="AK8">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL8">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1228,65 +1246,68 @@
       <c r="S9">
         <v>20</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>0.04</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>41</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>24</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.08</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>8.72E-2</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AC9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>53</v>
       </c>
       <c r="AD9" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AG9" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH9">
+      <c r="AH9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9">
         <v>6896913</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>0.02</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>0.3</v>
-      </c>
-      <c r="AK9">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL9">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1344,65 +1365,68 @@
       <c r="S10">
         <v>20</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0.04</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>41</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>25</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.08</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>8.72E-2</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>53</v>
       </c>
       <c r="AD10" t="s">
         <v>53</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AE10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AG10" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH10">
+      <c r="AH10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10">
         <v>6896913</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>0.02</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.3</v>
-      </c>
-      <c r="AK10">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL10">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1460,65 +1484,68 @@
       <c r="S11">
         <v>20</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>0.04</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>41</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>26</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.08</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>8.72E-2</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AC11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>53</v>
       </c>
       <c r="AD11" t="s">
         <v>53</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AG11" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH11">
+      <c r="AH11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11">
         <v>6896913</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>0.02</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>0.3</v>
-      </c>
-      <c r="AK11">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL11">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1576,70 +1603,192 @@
       <c r="S12">
         <v>20</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>0.04</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>5</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>41</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>27</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.08</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>8.72E-2</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AC12" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>53</v>
       </c>
       <c r="AD12" t="s">
         <v>53</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AE12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF12" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AG12" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AG12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH12">
+      <c r="AH12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12">
         <v>6896913</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.02</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>0.3</v>
-      </c>
-      <c r="AK12">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AL12">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="AM12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.04</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15">
+        <v>0.08</v>
+      </c>
+      <c r="AB15">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AH15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>6896913</v>
+      </c>
+      <c r="AJ15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AK15">
+        <v>0.3</v>
+      </c>
+      <c r="AL15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AM15">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D8:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D8:G12 D15:G15">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6 X8:X12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6 Y8:Y12 Y15">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1653,7 +1802,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1844,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1722,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1942,7 @@
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8">
         <v>0.08</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
   <si>
     <t>runname</t>
   </si>
@@ -217,30 +217,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Callan assumption</t>
-  </si>
-  <si>
     <t>MISERS assumption met</t>
   </si>
   <si>
-    <t>RVK2012 Conservative portfolio</t>
-  </si>
-  <si>
     <t>Low return for 15 years</t>
   </si>
   <si>
-    <t>Low return ramping up to MISERS assmption in 5 years</t>
-  </si>
-  <si>
-    <t>Low return ramping up to MISERS assumption in 5 years</t>
-  </si>
-  <si>
-    <t>RVK2012 conservative portfolio</t>
-  </si>
-  <si>
-    <t>Callan portfolio</t>
-  </si>
-  <si>
     <t>For development</t>
   </si>
   <si>
@@ -275,6 +257,66 @@
   </si>
   <si>
     <t>sensitivity test 1</t>
+  </si>
+  <si>
+    <t>15 years of low returns</t>
+  </si>
+  <si>
+    <t>High volatility</t>
+  </si>
+  <si>
+    <t>7.5% mean return; DC = 8%</t>
+  </si>
+  <si>
+    <t>7.5% mean return; DC = 7.5%</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RS1.closed</t>
+  </si>
+  <si>
+    <t>RS2.closed</t>
+  </si>
+  <si>
+    <t>RS3.closed</t>
+  </si>
+  <si>
+    <t>RS4.closed</t>
+  </si>
+  <si>
+    <t>high volatility</t>
+  </si>
+  <si>
+    <t>7.5% return</t>
+  </si>
+  <si>
+    <t>RS4.open</t>
+  </si>
+  <si>
+    <t>RS1.open</t>
+  </si>
+  <si>
+    <t>RS2.open</t>
+  </si>
+  <si>
+    <t>RS3.open</t>
+  </si>
+  <si>
+    <t>RS5.closed</t>
+  </si>
+  <si>
+    <t>7.5% return; starting 2017</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
@@ -375,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -394,6 +436,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,13 +465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>456290</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -461,15 +508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>198982</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75569</xdr:rowOff>
+      <xdr:colOff>560932</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>170819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,8 +539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="3981450"/>
-          <a:ext cx="8342857" cy="5047619"/>
+          <a:off x="7134225" y="3695700"/>
+          <a:ext cx="7314157" cy="5047619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,31 +849,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AM15"/>
+  <dimension ref="A4:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="16" max="17" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,961 +887,1509 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>21</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.04</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6">
+        <v>0.08</v>
+      </c>
+      <c r="AD6">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK6">
+        <v>6896913</v>
+      </c>
+      <c r="AL6">
+        <v>0.02</v>
+      </c>
+      <c r="AM6">
+        <v>0.3</v>
+      </c>
+      <c r="AN6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>21</v>
+      </c>
+      <c r="T8">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.04</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8">
+        <v>0.08</v>
+      </c>
+      <c r="AD8">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH8" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI8" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>6896913</v>
+      </c>
+      <c r="AL8">
+        <v>0.02</v>
+      </c>
+      <c r="AM8">
+        <v>0.3</v>
+      </c>
+      <c r="AN8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>21</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.04</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9">
+        <v>0.08</v>
+      </c>
+      <c r="AD9">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>6896913</v>
+      </c>
+      <c r="AL9">
+        <v>0.02</v>
+      </c>
+      <c r="AM9">
+        <v>0.3</v>
+      </c>
+      <c r="AN9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>21</v>
+      </c>
+      <c r="T10">
+        <v>30</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.04</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10">
+        <v>0.08</v>
+      </c>
+      <c r="AD10">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>6896913</v>
+      </c>
+      <c r="AL10">
+        <v>0.02</v>
+      </c>
+      <c r="AM10">
+        <v>0.3</v>
+      </c>
+      <c r="AN10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>21</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.04</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC11">
+        <v>0.08</v>
+      </c>
+      <c r="AD11">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>6896913</v>
+      </c>
+      <c r="AL11">
+        <v>0.02</v>
+      </c>
+      <c r="AM11">
+        <v>0.3</v>
+      </c>
+      <c r="AN11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>21</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.04</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13">
+        <v>0.08</v>
+      </c>
+      <c r="AD13">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>6896913</v>
+      </c>
+      <c r="AL13">
+        <v>0.02</v>
+      </c>
+      <c r="AM13">
+        <v>0.3</v>
+      </c>
+      <c r="AN13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>21</v>
+      </c>
+      <c r="T14">
+        <v>30</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.04</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14">
+        <v>0.08</v>
+      </c>
+      <c r="AD14">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>6896913</v>
+      </c>
+      <c r="AL14">
+        <v>0.02</v>
+      </c>
+      <c r="AM14">
+        <v>0.3</v>
+      </c>
+      <c r="AN14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+      <c r="T15">
+        <v>30</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.04</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15">
+        <v>0.08</v>
+      </c>
+      <c r="AD15">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>6896913</v>
+      </c>
+      <c r="AL15">
+        <v>0.02</v>
+      </c>
+      <c r="AM15">
+        <v>0.3</v>
+      </c>
+      <c r="AN15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>21</v>
+      </c>
+      <c r="T16">
+        <v>30</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.04</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16">
+        <v>0.08</v>
+      </c>
+      <c r="AD16">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>6896913</v>
+      </c>
+      <c r="AL16">
+        <v>0.02</v>
+      </c>
+      <c r="AM16">
+        <v>0.3</v>
+      </c>
+      <c r="AN16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE17" s="7"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.04</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC18">
+        <v>0.08</v>
+      </c>
+      <c r="AD18">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AJ18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>6896913</v>
+      </c>
+      <c r="AL18">
+        <v>0.02</v>
+      </c>
+      <c r="AM18">
+        <v>0.3</v>
+      </c>
+      <c r="AN18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AO18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE19" s="7"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="L21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K6">
+      <c r="M21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q21" t="s">
         <v>58</v>
       </c>
-      <c r="P6">
+      <c r="R21">
         <v>20</v>
       </c>
-      <c r="Q6">
+      <c r="S21">
         <v>21</v>
       </c>
-      <c r="R6">
+      <c r="T21">
         <v>30</v>
       </c>
-      <c r="S6">
+      <c r="U21">
         <v>20</v>
       </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>0.04</v>
       </c>
-      <c r="V6">
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="AA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" t="s">
         <v>23</v>
       </c>
-      <c r="AA6">
-        <v>0.08</v>
-      </c>
-      <c r="AB6">
+      <c r="AC21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD21">
         <v>8.72E-2</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE21" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF21" t="s">
         <v>53</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG21" t="s">
         <v>53</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AH21" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AI21" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AH6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI6">
+      <c r="AJ21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21">
         <v>6896913</v>
       </c>
-      <c r="AJ6">
+      <c r="AL21">
         <v>0.02</v>
       </c>
-      <c r="AK6">
+      <c r="AM21">
         <v>0.3</v>
       </c>
-      <c r="AL6">
+      <c r="AN21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AM6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8">
-        <v>20</v>
-      </c>
-      <c r="Q8">
-        <v>21</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.04</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8">
-        <v>0.08</v>
-      </c>
-      <c r="AB8">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG8" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>6896913</v>
-      </c>
-      <c r="AJ8">
-        <v>0.02</v>
-      </c>
-      <c r="AK8">
-        <v>0.3</v>
-      </c>
-      <c r="AL8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9">
-        <v>20</v>
-      </c>
-      <c r="Q9">
-        <v>21</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>20</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.04</v>
-      </c>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA9">
-        <v>0.08</v>
-      </c>
-      <c r="AB9">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG9" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>6896913</v>
-      </c>
-      <c r="AJ9">
-        <v>0.02</v>
-      </c>
-      <c r="AK9">
-        <v>0.3</v>
-      </c>
-      <c r="AL9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
-      </c>
-      <c r="Q10">
-        <v>21</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>20</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.04</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA10">
-        <v>0.08</v>
-      </c>
-      <c r="AB10">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF10" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG10" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>6896913</v>
-      </c>
-      <c r="AJ10">
-        <v>0.02</v>
-      </c>
-      <c r="AK10">
-        <v>0.3</v>
-      </c>
-      <c r="AL10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
-      </c>
-      <c r="Q11">
-        <v>21</v>
-      </c>
-      <c r="R11">
-        <v>30</v>
-      </c>
-      <c r="S11">
-        <v>20</v>
-      </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.04</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11">
-        <v>0.08</v>
-      </c>
-      <c r="AB11">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF11" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG11" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>6896913</v>
-      </c>
-      <c r="AJ11">
-        <v>0.02</v>
-      </c>
-      <c r="AK11">
-        <v>0.3</v>
-      </c>
-      <c r="AL11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
-      </c>
-      <c r="Q12">
-        <v>21</v>
-      </c>
-      <c r="R12">
-        <v>30</v>
-      </c>
-      <c r="S12">
-        <v>20</v>
-      </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0.04</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12">
-        <v>0.08</v>
-      </c>
-      <c r="AB12">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG12" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>6896913</v>
-      </c>
-      <c r="AJ12">
-        <v>0.02</v>
-      </c>
-      <c r="AK12">
-        <v>0.3</v>
-      </c>
-      <c r="AL12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15">
-        <v>20</v>
-      </c>
-      <c r="Q15">
-        <v>21</v>
-      </c>
-      <c r="R15">
-        <v>30</v>
-      </c>
-      <c r="S15">
-        <v>20</v>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0.04</v>
-      </c>
-      <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA15">
-        <v>0.08</v>
-      </c>
-      <c r="AB15">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF15" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AG15" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AH15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI15">
-        <v>6896913</v>
-      </c>
-      <c r="AJ15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AK15">
-        <v>0.3</v>
-      </c>
-      <c r="AL15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM15">
+      <c r="AO21">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:G6 D8:G12 D15:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I6 F8:I11 F21:I21 F13:I19">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6 Y8:Y12 Y15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6 AA8:AA11 AA21 AA13:AA19">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1869,18 +2470,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1888,7 +2489,7 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1897,10 +2498,10 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1911,8 +2512,8 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14">
-        <v>0.01</v>
+      <c r="B2" s="20">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -1920,31 +2521,30 @@
       <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0.01</v>
+      <c r="E2" s="18">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9">
-        <f>F3+C3^2/2</f>
-        <v>8.72E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="B3" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
         <v>0.08</v>
       </c>
       <c r="F3" s="10">
@@ -1953,66 +2553,66 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9">
-        <v>0.01</v>
+        <f>F4+C4^2/2</f>
+        <v>8.72E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
+        <v>0.08</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.01</v>
+      <c r="B5" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
-        <f>B4+0.0772/5</f>
-        <v>2.5440000000000001E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2.5399999999999999E-2</v>
+      <c r="B6" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2020,20 +2620,20 @@
         <v>24</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ref="B7:B10" si="0">B6+0.0772/5</f>
-        <v>4.088E-2</v>
+        <f>F7+C7^2/2</f>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="C7" s="7">
         <v>0.12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4.0899999999999999E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,20 +2641,20 @@
         <v>24</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>5.6320000000000002E-2</v>
+        <f>F8+C8^2/2</f>
+        <v>7.22E-2</v>
       </c>
       <c r="C8" s="7">
         <v>0.12</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5.6300000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2062,67 +2662,64 @@
         <v>24</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>7.1760000000000004E-2</v>
+        <f>F9+C9^2/2</f>
+        <v>8.72E-2</v>
       </c>
       <c r="C9" s="7">
         <v>0.12</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.1800000000000003E-2</v>
+        <f t="shared" ref="E9:E12" si="0">B9-C9^2/2</f>
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>8.72E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8">
-        <v>8.72E-2</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F19" si="1">B10 - C10^2/2</f>
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" ref="E11:E19" si="2">B11-C11^2/2</f>
-        <v>0.01</v>
+      <c r="B11" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.08</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2130,178 +2727,108 @@
         <v>25</v>
       </c>
       <c r="B12" s="9">
-        <v>0.02</v>
+        <f>F12+C12^2/2</f>
+        <v>9.6928E-2</v>
       </c>
       <c r="C12" s="7">
-        <v>0.12</v>
+        <v>0.184</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8">
-        <v>1.2800000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="1"/>
-        <v>1.2800000000000001E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3.2800000000000003E-2</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
-        <v>3.2800000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>5.28E-2</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.08</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>5.28E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9">
-        <v>8.72E-2</v>
+        <f>F15+C15^2/2</f>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C15" s="7">
         <v>0.12</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
-        <v>0.01</v>
+        <f>F16+C16^2/2</f>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="2"/>
-        <v>4.0184154999999999E-2</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>4.0184154999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.184</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="2"/>
-        <v>6.4072000000000004E-2</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="1"/>
-        <v>6.4072000000000004E-2</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2894,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
   <si>
     <t>runname</t>
   </si>
@@ -317,6 +317,27 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>init.year.override</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>AA0</t>
+  </si>
+  <si>
+    <t>MA_0</t>
+  </si>
+  <si>
+    <t>AA_0</t>
+  </si>
+  <si>
+    <t>RS1.duration7</t>
+  </si>
+  <si>
+    <t>RS1.duration9</t>
   </si>
 </sst>
 </file>
@@ -328,7 +349,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +379,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -417,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -441,6 +468,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,6 +492,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC826B7D-D3B7-432C-8D4B-39850683C3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25031700" y="4591050"/>
+          <a:ext cx="3619500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2017,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> dc = 7.5%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MA 11397362049 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AA  11422640330</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -849,37 +1018,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AO21"/>
+  <dimension ref="A4:AR25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="9" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="16" max="17" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,10 +1065,10 @@
         <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>43</v>
@@ -910,118 +1082,129 @@
       <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AH5" s="12"/>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
@@ -1034,101 +1217,106 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>4</v>
-      </c>
-      <c r="L6">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
+      <c r="N6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>58</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>21</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>30</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>20</v>
       </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0.04</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>23</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.08</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>8.72E-2</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AF6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>53</v>
       </c>
       <c r="AG6" t="s">
         <v>53</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AH6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI6" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AJ6" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>6896913</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>0.02</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <v>0.3</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1141,12 +1329,12 @@
       <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
@@ -1159,101 +1347,106 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>4</v>
-      </c>
-      <c r="L8">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N8" t="b">
-        <v>1</v>
+      <c r="N8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>58</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>21</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>30</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>20</v>
       </c>
-      <c r="V8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>0.04</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>5</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>23</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.08</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>8.72E-2</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AF8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>53</v>
       </c>
       <c r="AG8" t="s">
         <v>53</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI8" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AJ8" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8">
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>6896913</v>
       </c>
-      <c r="AL8">
+      <c r="AO8">
         <v>0.02</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <v>0.3</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1266,12 +1459,12 @@
       <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
@@ -1284,101 +1477,106 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>4</v>
-      </c>
-      <c r="L9">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N9" t="b">
-        <v>1</v>
+      <c r="N9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>58</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>21</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>30</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>20</v>
       </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>0.04</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
         <v>41</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>31</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>24</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.08</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>8.72E-2</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AF9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>53</v>
       </c>
       <c r="AG9" t="s">
         <v>53</v>
       </c>
-      <c r="AH9" s="15">
+      <c r="AH9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI9" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI9" s="15">
+      <c r="AJ9" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9">
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9">
         <v>6896913</v>
       </c>
-      <c r="AL9">
+      <c r="AO9">
         <v>0.02</v>
       </c>
-      <c r="AM9">
+      <c r="AP9">
         <v>0.3</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO9">
+      <c r="AR9">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1391,12 +1589,12 @@
       <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
@@ -1409,101 +1607,106 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>4</v>
-      </c>
-      <c r="L10">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N10" t="b">
-        <v>1</v>
+      <c r="N10">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>58</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>20</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>21</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>30</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>20</v>
       </c>
-      <c r="V10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>0.04</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>25</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.08</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>8.72E-2</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AF10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>53</v>
       </c>
       <c r="AG10" t="s">
         <v>53</v>
       </c>
-      <c r="AH10" s="15">
+      <c r="AH10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI10" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="AJ10" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK10">
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>6896913</v>
       </c>
-      <c r="AL10">
+      <c r="AO10">
         <v>0.02</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
         <v>0.3</v>
       </c>
-      <c r="AN10">
+      <c r="AQ10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO10">
+      <c r="AR10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1516,12 +1719,12 @@
       <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
@@ -1534,101 +1737,106 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>4</v>
-      </c>
-      <c r="L11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N11" t="b">
-        <v>1</v>
+      <c r="N11">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>58</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>20</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>21</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>30</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>20</v>
       </c>
-      <c r="V11" t="b">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>0.04</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
         <v>41</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>26</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.08</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>8.72E-2</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AF11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>53</v>
       </c>
       <c r="AG11" t="s">
         <v>53</v>
       </c>
-      <c r="AH11" s="15">
+      <c r="AH11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI11" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="AJ11" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11">
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>6896913</v>
       </c>
-      <c r="AL11">
+      <c r="AO11">
         <v>0.02</v>
       </c>
-      <c r="AM11">
+      <c r="AP11">
         <v>0.3</v>
       </c>
-      <c r="AN11">
+      <c r="AQ11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO11">
+      <c r="AR11">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1641,12 +1849,12 @@
       <c r="D13" t="s">
         <v>97</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
@@ -1659,101 +1867,106 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>4</v>
-      </c>
-      <c r="L13">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N13" t="b">
-        <v>1</v>
+      <c r="N13">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>58</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>20</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>21</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>30</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>20</v>
       </c>
-      <c r="V13" t="b">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>0.04</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
         <v>74</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>31</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>23</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0.08</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>8.72E-2</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AF13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>53</v>
       </c>
       <c r="AG13" t="s">
         <v>53</v>
       </c>
-      <c r="AH13" s="15">
+      <c r="AH13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI13" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI13" s="15">
+      <c r="AJ13" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK13">
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13">
         <v>6896913</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>0.02</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>0.3</v>
       </c>
-      <c r="AN13">
+      <c r="AQ13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO13">
+      <c r="AR13">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1766,12 +1979,12 @@
       <c r="D14" t="s">
         <v>97</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
@@ -1784,101 +1997,106 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>4</v>
-      </c>
-      <c r="L14">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N14" t="b">
-        <v>1</v>
+      <c r="N14">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>58</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>20</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>21</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>30</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>20</v>
       </c>
-      <c r="V14" t="b">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>0.04</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
         <v>74</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>31</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>24</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.08</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>8.72E-2</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AF14" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>53</v>
       </c>
       <c r="AG14" t="s">
         <v>53</v>
       </c>
-      <c r="AH14" s="15">
+      <c r="AH14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI14" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI14" s="15">
+      <c r="AJ14" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14">
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14">
         <v>6896913</v>
       </c>
-      <c r="AL14">
+      <c r="AO14">
         <v>0.02</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
         <v>0.3</v>
       </c>
-      <c r="AN14">
+      <c r="AQ14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO14">
+      <c r="AR14">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1891,12 +2109,12 @@
       <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
@@ -1909,101 +2127,106 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>4</v>
-      </c>
-      <c r="L15">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N15" t="b">
-        <v>1</v>
+      <c r="N15">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>58</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>20</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>21</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>30</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>20</v>
       </c>
-      <c r="V15" t="b">
-        <v>0</v>
-      </c>
-      <c r="W15">
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>0.04</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
         <v>74</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>31</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>25</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.08</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>8.72E-2</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AF15" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>53</v>
       </c>
       <c r="AG15" t="s">
         <v>53</v>
       </c>
-      <c r="AH15" s="15">
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI15" s="15">
+      <c r="AJ15" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK15">
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15">
         <v>6896913</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>0.02</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>0.3</v>
       </c>
-      <c r="AN15">
+      <c r="AQ15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -2016,12 +2239,12 @@
       <c r="D16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
@@ -2034,107 +2257,114 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>4</v>
-      </c>
-      <c r="L16">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N16" t="b">
-        <v>1</v>
+      <c r="N16">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>58</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>20</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>21</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>30</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>20</v>
       </c>
-      <c r="V16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16">
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>0.04</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>26</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.08</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>8.72E-2</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AF16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>53</v>
       </c>
       <c r="AG16" t="s">
         <v>53</v>
       </c>
-      <c r="AH16" s="15">
+      <c r="AH16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI16" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI16" s="15">
+      <c r="AJ16" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK16">
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <v>6896913</v>
       </c>
-      <c r="AL16">
+      <c r="AO16">
         <v>0.02</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
         <v>0.3</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AE17" s="7"/>
-      <c r="AH17" s="15"/>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AF17" s="7"/>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2147,12 +2377,12 @@
       <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
@@ -2165,119 +2395,130 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>2017</v>
+      </c>
+      <c r="L18" t="s">
         <v>4</v>
-      </c>
-      <c r="L18">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N18" t="b">
-        <v>1</v>
+      <c r="N18">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>58</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>20</v>
       </c>
-      <c r="S18">
-        <v>21</v>
-      </c>
       <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="U18">
         <v>30</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>20</v>
       </c>
-      <c r="V18" t="b">
-        <v>0</v>
-      </c>
-      <c r="W18">
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>0.04</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>5</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
         <v>41</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>26</v>
       </c>
-      <c r="AC18">
-        <v>0.08</v>
-      </c>
       <c r="AD18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE18">
         <v>8.72E-2</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AF18" s="7">
         <v>0.12</v>
       </c>
-      <c r="AF18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH18" s="15">
+      <c r="AG18" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI18" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI18" s="15">
+      <c r="AJ18" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18">
+      <c r="AK18" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AM18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18">
         <v>6896913</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>0.02</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>0.3</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AE19" s="7"/>
-      <c r="AH19" s="15"/>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AF19" s="7"/>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
@@ -2290,111 +2531,388 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>4</v>
-      </c>
-      <c r="L21">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N21" t="b">
-        <v>1</v>
+      <c r="N21">
+        <v>0.14000000000000001</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>58</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>21</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>30</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="V21" t="b">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>0.04</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>5</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="s">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
         <v>41</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>23</v>
       </c>
-      <c r="AC21">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="AD21">
+        <v>0.08</v>
+      </c>
+      <c r="AE21">
         <v>8.72E-2</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AF21" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>53</v>
       </c>
       <c r="AG21" t="s">
         <v>53</v>
       </c>
-      <c r="AH21" s="15">
+      <c r="AH21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI21" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AI21" s="15">
+      <c r="AJ21" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AJ21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21">
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21">
         <v>6896913</v>
       </c>
-      <c r="AL21">
+      <c r="AO21">
         <v>0.02</v>
       </c>
-      <c r="AM21">
+      <c r="AP21">
         <v>0.3</v>
       </c>
-      <c r="AN21">
+      <c r="AQ21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO21">
+      <c r="AR21">
         <v>3.5000000000000003E-2</v>
       </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.04</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE23">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH23" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI23" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AK23" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AL23" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AM23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>6896913</v>
+      </c>
+      <c r="AO23">
+        <v>0.02</v>
+      </c>
+      <c r="AP23">
+        <v>0.3</v>
+      </c>
+      <c r="AQ23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24">
+        <v>20</v>
+      </c>
+      <c r="T24">
+        <v>21</v>
+      </c>
+      <c r="U24">
+        <v>30</v>
+      </c>
+      <c r="V24">
+        <v>20</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0.04</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD24">
+        <v>0.09</v>
+      </c>
+      <c r="AE24">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH24" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI24" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AJ24" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AK24" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AM24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>6896913</v>
+      </c>
+      <c r="AO24">
+        <v>0.02</v>
+      </c>
+      <c r="AP24">
+        <v>0.3</v>
+      </c>
+      <c r="AQ24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AG25" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I6 F8:I11 F21:I21 F13:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB8:AB11 AB21 AB13:AB19 AB23:AB24">
+      <formula1>"simple, internal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G13:I19 E21 G21:I21 E6 G8:I11 E23:E24 G23:I24 E8:E19">
       <formula1>"TRUE, FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6 AA8:AA11 AA21 AA13:AA19">
-      <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2403,7 +2921,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,7 +2963,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2473,7 +2991,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" ref="E9:E12" si="0">B9-C9^2/2</f>
+        <f t="shared" ref="E9" si="0">B9-C9^2/2</f>
         <v>0.08</v>
       </c>
       <c r="F9" s="10">
@@ -2819,7 +3337,7 @@
         <v>0.12</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8">
         <v>7.4999999999999997E-2</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="107">
   <si>
     <t>runname</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>RS1.duration9</t>
+  </si>
+  <si>
+    <t>RS1.closed.m20</t>
+  </si>
+  <si>
+    <t>MISERS assumption met; open amortization</t>
   </si>
 </sst>
 </file>
@@ -497,13 +503,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1018,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AR25"/>
+  <dimension ref="A4:AR27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,21 +1842,29 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AF12" s="7"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+    </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -1889,7 +1903,7 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S13">
         <v>20</v>
@@ -1916,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s">
         <v>31</v>
@@ -1966,145 +1980,15 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14">
-        <v>20</v>
-      </c>
-      <c r="T14">
-        <v>21</v>
-      </c>
-      <c r="U14">
-        <v>30</v>
-      </c>
-      <c r="V14">
-        <v>20</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0.04</v>
-      </c>
-      <c r="Y14">
-        <v>5</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD14">
-        <v>0.08</v>
-      </c>
-      <c r="AE14">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI14" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AJ14" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <v>6896913</v>
-      </c>
-      <c r="AO14">
-        <v>0.02</v>
-      </c>
-      <c r="AP14">
-        <v>0.3</v>
-      </c>
-      <c r="AQ14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AR14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>97</v>
@@ -2182,7 +2066,7 @@
         <v>31</v>
       </c>
       <c r="AC15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD15">
         <v>0.08</v>
@@ -2228,13 +2112,13 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
@@ -2312,7 +2196,7 @@
         <v>31</v>
       </c>
       <c r="AC16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD16">
         <v>0.08</v>
@@ -2357,25 +2241,147 @@
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AF17" s="7"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.04</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD17">
+        <v>0.08</v>
+      </c>
+      <c r="AE17">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>0.66283190000000003</v>
+      </c>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
+      <c r="AM17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>6896913</v>
+      </c>
+      <c r="AO17">
+        <v>0.02</v>
+      </c>
+      <c r="AP17">
+        <v>0.3</v>
+      </c>
+      <c r="AQ17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR17">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>4</v>
@@ -2423,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="T18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U18">
         <v>30</v>
@@ -2444,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s">
         <v>31</v>
@@ -2453,7 +2459,7 @@
         <v>26</v>
       </c>
       <c r="AD18">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AE18">
         <v>8.72E-2</v>
@@ -2461,11 +2467,11 @@
       <c r="AF18" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG18" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH18" s="21" t="s">
-        <v>100</v>
+      <c r="AG18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>53</v>
       </c>
       <c r="AI18" s="15">
         <v>0.68232040000000005</v>
@@ -2473,12 +2479,8 @@
       <c r="AJ18" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK18" s="22">
-        <v>11397362049</v>
-      </c>
-      <c r="AL18" s="22">
-        <v>11422640330</v>
-      </c>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
       <c r="AM18" s="15" t="b">
         <v>1</v>
       </c>
@@ -2506,145 +2508,157 @@
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
     </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2017</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>30</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0.04</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE20">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AK20" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AL20" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AM20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>6896913</v>
+      </c>
+      <c r="AO20">
+        <v>0.02</v>
+      </c>
+      <c r="AP20">
+        <v>0.3</v>
+      </c>
+      <c r="AQ20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21">
-        <v>20</v>
-      </c>
-      <c r="T21">
-        <v>21</v>
-      </c>
-      <c r="U21">
-        <v>30</v>
-      </c>
-      <c r="V21">
-        <v>20</v>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0.04</v>
-      </c>
-      <c r="Y21">
-        <v>5</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD21">
-        <v>0.08</v>
-      </c>
-      <c r="AE21">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AJ21" s="15">
-        <v>0.66283190000000003</v>
-      </c>
+      <c r="AF21" s="7"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
       <c r="AK21" s="15"/>
       <c r="AL21" s="15"/>
-      <c r="AM21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>6896913</v>
-      </c>
-      <c r="AO21">
-        <v>0.02</v>
-      </c>
-      <c r="AP21">
-        <v>0.3</v>
-      </c>
-      <c r="AQ21">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AR21">
-        <v>3.5000000000000003E-2</v>
-      </c>
+      <c r="AM21" s="15"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -2719,7 +2733,7 @@
         <v>23</v>
       </c>
       <c r="AD23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AE23">
         <v>8.72E-2</v>
@@ -2727,11 +2741,11 @@
       <c r="AF23" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG23" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH23" s="21" t="s">
-        <v>100</v>
+      <c r="AG23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>53</v>
       </c>
       <c r="AI23" s="15">
         <v>0.68232040000000005</v>
@@ -2739,12 +2753,8 @@
       <c r="AJ23" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK23" s="22">
-        <v>11397362049</v>
-      </c>
-      <c r="AL23" s="22">
-        <v>11422640330</v>
-      </c>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
       <c r="AM23" s="15" t="b">
         <v>1</v>
       </c>
@@ -2764,149 +2774,283 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>21</v>
+      </c>
+      <c r="U25">
+        <v>30</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0.04</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE25">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AG25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH25" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI25" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AK25" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AL25" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AM25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>6896913</v>
+      </c>
+      <c r="AO25">
+        <v>0.02</v>
+      </c>
+      <c r="AP25">
+        <v>0.3</v>
+      </c>
+      <c r="AQ25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AR25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>4</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N24">
+      <c r="N26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
         <v>56</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R26" t="s">
         <v>58</v>
       </c>
-      <c r="S24">
+      <c r="S26">
         <v>20</v>
       </c>
-      <c r="T24">
+      <c r="T26">
         <v>21</v>
       </c>
-      <c r="U24">
+      <c r="U26">
         <v>30</v>
       </c>
-      <c r="V24">
+      <c r="V26">
         <v>20</v>
       </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>0.04</v>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <v>5</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB26" t="s">
         <v>31</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC26" t="s">
         <v>23</v>
       </c>
-      <c r="AD24">
+      <c r="AD26">
         <v>0.09</v>
       </c>
-      <c r="AE24">
+      <c r="AE26">
         <v>8.72E-2</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AF26" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG24" s="21" t="s">
+      <c r="AG26" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AH24" s="21" t="s">
+      <c r="AH26" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AI24" s="15">
+      <c r="AI26" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ24" s="15">
+      <c r="AJ26" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK24" s="22">
+      <c r="AK26" s="22">
         <v>11397362049</v>
       </c>
-      <c r="AL24" s="22">
+      <c r="AL26" s="22">
         <v>11422640330</v>
       </c>
-      <c r="AM24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24">
+      <c r="AM26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26">
         <v>6896913</v>
       </c>
-      <c r="AO24">
+      <c r="AO26">
         <v>0.02</v>
       </c>
-      <c r="AP24">
+      <c r="AP26">
         <v>0.3</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ26">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AR24">
+      <c r="AR26">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AG25" s="23"/>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AG27" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB8:AB11 AB21 AB13:AB19 AB23:AB24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB25:AB26 AB23 AB15:AB21 AB8:AB13">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G13:I19 E21 G21:I21 E6 G8:I11 E23:E24 G23:I24 E8:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G15:I21 E23 G23:I23 E6 E25:E26 G25:I26 E8:E21 G8:I13">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2991,7 +3135,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1030,13 +1030,13 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
@@ -1864,7 +1864,7 @@
         <v>96</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -1994,7 +1994,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -2033,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S15">
         <v>20</v>
@@ -2163,7 +2163,7 @@
         <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -2293,7 +2293,7 @@
         <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S17">
         <v>20</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="S18">
         <v>20</v>
@@ -3050,7 +3050,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB25:AB26 AB23 AB15:AB21 AB8:AB13">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G15:I21 E23 G23:I23 E6 E25:E26 G25:I26 E8:E21 G8:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G15:I21 E23 G23:I23 E6 E25:E26 G25:I26 G8:I13 E8:E21">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t>runname</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>MISERS assumption met; open amortization</t>
+  </si>
+  <si>
+    <t>RS1.closed.min5</t>
+  </si>
+  <si>
+    <t>m.min</t>
   </si>
 </sst>
 </file>
@@ -501,15 +507,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1024,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AR27"/>
+  <dimension ref="A4:AS28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,16 +1054,16 @@
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="17" max="18" width="14.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,77 +1134,80 @@
         <v>75</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AL4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AM4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AN4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AI5" s="12"/>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AN5" s="12"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1263,66 +1272,69 @@
         <v>0</v>
       </c>
       <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>0.04</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>23</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.08</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8.72E-2</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AG6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>53</v>
       </c>
       <c r="AH6" t="s">
         <v>53</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AI6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AK6" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="15" t="s">
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>6896913</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0.02</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0.3</v>
-      </c>
-      <c r="AQ6">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR6">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1393,66 +1405,69 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
         <v>0.04</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>31</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>23</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.08</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>8.72E-2</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AG8" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>53</v>
       </c>
       <c r="AH8" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ8" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ8" s="15">
+      <c r="AK8" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8">
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>6896913</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>0.02</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0.3</v>
-      </c>
-      <c r="AQ8">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR8">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1523,66 +1538,69 @@
         <v>0</v>
       </c>
       <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
         <v>0.04</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>24</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.08</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>8.72E-2</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AG9" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>53</v>
       </c>
       <c r="AH9" t="s">
         <v>53</v>
       </c>
-      <c r="AI9" s="15">
+      <c r="AI9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ9" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AK9" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
-      <c r="AM9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9">
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>6896913</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>0.02</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>0.3</v>
-      </c>
-      <c r="AQ9">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR9">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1653,66 +1671,69 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>0.04</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>31</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>25</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.08</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>8.72E-2</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AG10" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>53</v>
       </c>
       <c r="AH10" t="s">
         <v>53</v>
       </c>
-      <c r="AI10" s="15">
+      <c r="AI10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ10" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ10" s="15">
+      <c r="AK10" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
-      <c r="AM10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10">
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>6896913</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>0.02</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>0.3</v>
-      </c>
-      <c r="AQ10">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR10">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1783,74 +1804,77 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>0.04</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>31</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>26</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.08</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>8.72E-2</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AG11" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>53</v>
       </c>
       <c r="AH11" t="s">
         <v>53</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="AI11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ11" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ11" s="15">
+      <c r="AK11" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
-      <c r="AM11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11">
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>6896913</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>0.02</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>0.3</v>
-      </c>
-      <c r="AQ11">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR11">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AF12" s="7"/>
-      <c r="AI12" s="15"/>
+      <c r="AS11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG12" s="7"/>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
       <c r="AM12" s="15"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AN12" s="15"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -1921,204 +1945,210 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
         <v>0.04</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>5</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>31</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>23</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.08</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>8.72E-2</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AG13" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>53</v>
       </c>
       <c r="AH13" t="s">
         <v>53</v>
       </c>
-      <c r="AI13" s="15">
+      <c r="AI13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ13" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ13" s="15">
+      <c r="AK13" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
-      <c r="AM13" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13">
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>6896913</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>0.02</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>0.3</v>
-      </c>
-      <c r="AQ13">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR13">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="AS13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+      <c r="T14">
+        <v>21</v>
+      </c>
+      <c r="U14">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0.04</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE14">
+        <v>0.08</v>
+      </c>
+      <c r="AF14">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AK14" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>6896913</v>
+      </c>
+      <c r="AP14">
+        <v>0.02</v>
+      </c>
+      <c r="AQ14">
+        <v>0.3</v>
+      </c>
+      <c r="AR14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AS14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" t="s">
-        <v>97</v>
-      </c>
-      <c r="S15">
-        <v>20</v>
-      </c>
-      <c r="T15">
-        <v>21</v>
-      </c>
-      <c r="U15">
-        <v>30</v>
-      </c>
-      <c r="V15">
-        <v>20</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0.04</v>
-      </c>
-      <c r="Y15">
-        <v>5</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15">
-        <v>0.08</v>
-      </c>
-      <c r="AE15">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>6896913</v>
-      </c>
-      <c r="AO15">
-        <v>0.02</v>
-      </c>
-      <c r="AP15">
-        <v>0.3</v>
-      </c>
-      <c r="AQ15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AR15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
@@ -2181,74 +2211,77 @@
         <v>0</v>
       </c>
       <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
         <v>0.04</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>5</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>31</v>
       </c>
-      <c r="AC16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD16">
+      <c r="AD16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE16">
         <v>0.08</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>8.72E-2</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AG16" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>53</v>
       </c>
       <c r="AH16" t="s">
         <v>53</v>
       </c>
-      <c r="AI16" s="15">
+      <c r="AI16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ16" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ16" s="15">
+      <c r="AK16" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
-      <c r="AM16" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16">
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>6896913</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>0.02</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>0.3</v>
-      </c>
-      <c r="AQ16">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR16">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
@@ -2311,74 +2344,77 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
         <v>0.04</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>5</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
         <v>74</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>31</v>
       </c>
-      <c r="AC17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD17">
+      <c r="AD17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17">
         <v>0.08</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>8.72E-2</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AG17" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>53</v>
       </c>
       <c r="AH17" t="s">
         <v>53</v>
       </c>
-      <c r="AI17" s="15">
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ17" s="15">
+      <c r="AK17" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
-      <c r="AM17" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17">
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>6896913</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>0.02</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>0.3</v>
-      </c>
-      <c r="AQ17">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR17">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
@@ -2441,476 +2477,484 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
         <v>0.04</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>5</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>31</v>
       </c>
-      <c r="AC18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD18">
+      <c r="AD18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE18">
         <v>0.08</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>8.72E-2</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AG18" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>53</v>
       </c>
       <c r="AH18" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="15">
+      <c r="AI18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ18" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ18" s="15">
+      <c r="AK18" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
-      <c r="AM18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18">
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>6896913</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>0.02</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>0.3</v>
-      </c>
-      <c r="AQ18">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR18">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AF19" s="7"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
+      <c r="AS18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>21</v>
+      </c>
+      <c r="U19">
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0.04</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>0.08</v>
+      </c>
+      <c r="AF19">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>0.66283190000000003</v>
+      </c>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AN19" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>6896913</v>
+      </c>
+      <c r="AP19">
+        <v>0.02</v>
+      </c>
+      <c r="AQ19">
+        <v>0.3</v>
+      </c>
+      <c r="AR19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AS19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG20" s="7"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>2017</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>4</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>56</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R21" t="s">
         <v>58</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>19</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>30</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
         <v>0.04</v>
       </c>
-      <c r="Y20">
+      <c r="Z21">
         <v>5</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
         <v>41</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC21" t="s">
         <v>31</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD21" t="s">
         <v>26</v>
       </c>
-      <c r="AD20">
+      <c r="AE21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE20">
+      <c r="AF21">
         <v>8.72E-2</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AG21" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG20" s="21" t="s">
+      <c r="AH21" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AH20" s="21" t="s">
+      <c r="AI21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AI20" s="15">
+      <c r="AJ21" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ20" s="15">
+      <c r="AK21" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK20" s="22">
+      <c r="AL21" s="22">
         <v>11397362049</v>
       </c>
-      <c r="AL20" s="22">
+      <c r="AM21" s="22">
         <v>11422640330</v>
       </c>
-      <c r="AM20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20">
+      <c r="AN21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>6896913</v>
       </c>
-      <c r="AO20">
+      <c r="AP21">
         <v>0.02</v>
       </c>
-      <c r="AP20">
+      <c r="AQ21">
         <v>0.3</v>
       </c>
-      <c r="AQ20">
+      <c r="AR21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AR20">
+      <c r="AS21">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AF21" s="7"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG22" s="7"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>4</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
         <v>56</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R24" t="s">
         <v>58</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>20</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>21</v>
       </c>
-      <c r="U23">
+      <c r="U24">
         <v>30</v>
       </c>
-      <c r="V23">
+      <c r="V24">
         <v>20</v>
       </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>0.04</v>
       </c>
-      <c r="Y23">
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC24" t="s">
         <v>31</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD24" t="s">
         <v>23</v>
       </c>
-      <c r="AD23">
+      <c r="AE24">
         <v>0.08</v>
       </c>
-      <c r="AE23">
+      <c r="AF24">
         <v>8.72E-2</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AG24" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH24" t="s">
         <v>53</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI24" t="s">
         <v>53</v>
       </c>
-      <c r="AI23" s="15">
+      <c r="AJ24" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ23" s="15">
+      <c r="AK24" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23">
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>6896913</v>
       </c>
-      <c r="AO23">
+      <c r="AP24">
         <v>0.02</v>
       </c>
-      <c r="AP23">
+      <c r="AQ24">
         <v>0.3</v>
       </c>
-      <c r="AQ23">
+      <c r="AR24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AR23">
+      <c r="AS24">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25">
-        <v>20</v>
-      </c>
-      <c r="T25">
-        <v>21</v>
-      </c>
-      <c r="U25">
-        <v>30</v>
-      </c>
-      <c r="V25">
-        <v>20</v>
-      </c>
-      <c r="W25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0.04</v>
-      </c>
-      <c r="Y25">
-        <v>5</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AE25">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF25" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AG25" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH25" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>0.68232040000000005</v>
-      </c>
-      <c r="AJ25" s="15">
-        <v>0.66283190000000003</v>
-      </c>
-      <c r="AK25" s="22">
-        <v>11397362049</v>
-      </c>
-      <c r="AL25" s="22">
-        <v>11422640330</v>
-      </c>
-      <c r="AM25" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>6896913</v>
-      </c>
-      <c r="AO25">
-        <v>0.02</v>
-      </c>
-      <c r="AP25">
-        <v>0.3</v>
-      </c>
-      <c r="AQ25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AR25">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -2979,78 +3023,218 @@
         <v>0</v>
       </c>
       <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
         <v>0.04</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>5</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>31</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>23</v>
       </c>
-      <c r="AD26">
-        <v>0.09</v>
-      </c>
       <c r="AE26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF26">
         <v>8.72E-2</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AG26" s="7">
         <v>0.12</v>
       </c>
-      <c r="AG26" s="21" t="s">
+      <c r="AH26" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AH26" s="21" t="s">
+      <c r="AI26" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="AI26" s="15">
+      <c r="AJ26" s="15">
         <v>0.68232040000000005</v>
       </c>
-      <c r="AJ26" s="15">
+      <c r="AK26" s="15">
         <v>0.66283190000000003</v>
       </c>
-      <c r="AK26" s="22">
+      <c r="AL26" s="22">
         <v>11397362049</v>
       </c>
-      <c r="AL26" s="22">
+      <c r="AM26" s="22">
         <v>11422640330</v>
       </c>
-      <c r="AM26" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26">
+      <c r="AN26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>6896913</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>0.02</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>0.3</v>
-      </c>
-      <c r="AQ26">
-        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR26">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AG27" s="23"/>
+      <c r="AS26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>21</v>
+      </c>
+      <c r="U27">
+        <v>30</v>
+      </c>
+      <c r="V27">
+        <v>20</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0.04</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE27">
+        <v>0.09</v>
+      </c>
+      <c r="AF27">
+        <v>8.72E-2</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI27" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ27" s="15">
+        <v>0.68232040000000005</v>
+      </c>
+      <c r="AK27" s="15">
+        <v>0.66283190000000003</v>
+      </c>
+      <c r="AL27" s="22">
+        <v>11397362049</v>
+      </c>
+      <c r="AM27" s="22">
+        <v>11422640330</v>
+      </c>
+      <c r="AN27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>6896913</v>
+      </c>
+      <c r="AP27">
+        <v>0.02</v>
+      </c>
+      <c r="AQ27">
+        <v>0.3</v>
+      </c>
+      <c r="AR27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AS27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH28" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB25:AB26 AB23 AB15:AB21 AB8:AB13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6 AC26:AC27 AC24 AC16:AC22 AC8:AC14">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G15:I21 E23 G23:I23 E6 E25:E26 G25:I26 G8:I13 E8:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:I6 G16:I22 E24 G24:I24 E6 E26:E27 G26:I27 E8:E22 G8:I14">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
   <si>
     <t>runname</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>m.min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed </t>
+  </si>
+  <si>
+    <t>MISERS assumption met; min m = 5</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1039,10 @@
   <dimension ref="A4:AS28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y33" sqref="Y33"/>
+      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,16 +2018,16 @@
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -2060,7 +2066,7 @@
         <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="S14">
         <v>20</v>
@@ -2078,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>0.04</v>
